--- a/biology/Biologie cellulaire et moléculaire/PAR2/PAR2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/PAR2/PAR2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PAR2 (« Protease-Activated Receptor-2 »), ou F2RL1 (« coagulation factor II receptor-like 1 ») est un récepteur (biochimie) cellulaire de la famille des récepteurs activés par la protéase et intervient dans les syndromes inflammatoires et dans certaines infections. Son gène est F2RL1 situé sur le chromosome 5 humain.
 </t>
@@ -511,12 +523,14 @@
           <t>Rôle dans les infections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce récepteur peut être stimulé par le virus herpès simplex de type 1[5]. Il intervient dans le contrôle des récepteurs de type Toll (TLR), inhibant le TLR3[6] et interagissant avec le TLR4[7].
-Il aurait un rôle protecteur contre les infections par le virus de la grippe A[8].
-Son activation par le virus coxsackie B 3 jouerait un rôle dans la dysfonction cardiaque au cours d'une myocardite à ce virus[9].
-Son expression au niveau cardiaque est diminué en cas d'insuffisance cardiaque à fraction d'éjection préservée, avec une augmentation de la fibrose[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce récepteur peut être stimulé par le virus herpès simplex de type 1. Il intervient dans le contrôle des récepteurs de type Toll (TLR), inhibant le TLR3 et interagissant avec le TLR4.
+Il aurait un rôle protecteur contre les infections par le virus de la grippe A.
+Son activation par le virus coxsackie B 3 jouerait un rôle dans la dysfonction cardiaque au cours d'une myocardite à ce virus.
+Son expression au niveau cardiaque est diminué en cas d'insuffisance cardiaque à fraction d'éjection préservée, avec une augmentation de la fibrose.
 </t>
         </is>
       </c>
